--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.09665433333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.289963</v>
+      </c>
+      <c r="I2">
+        <v>0.0006230336790718351</v>
+      </c>
+      <c r="J2">
+        <v>0.0006230336790718351</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>34.739995</v>
-      </c>
-      <c r="H2">
-        <v>104.219985</v>
-      </c>
-      <c r="I2">
-        <v>0.1827267341390227</v>
-      </c>
-      <c r="J2">
-        <v>0.1827267341390227</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>2644.804050043058</v>
+        <v>0.005431071426222222</v>
       </c>
       <c r="R2">
-        <v>23803.23645038753</v>
+        <v>0.04887964283599999</v>
       </c>
       <c r="S2">
-        <v>0.1824541786576566</v>
+        <v>0.0002449386833692816</v>
       </c>
       <c r="T2">
-        <v>0.1824541786576566</v>
+        <v>0.0002449386833692815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>3.013266106311667</v>
+        <v>0.008383571346555556</v>
       </c>
       <c r="R3">
-        <v>27.11939495680501</v>
+        <v>0.075452142119</v>
       </c>
       <c r="S3">
-        <v>0.0002078728639632488</v>
+        <v>0.0003780949957025535</v>
       </c>
       <c r="T3">
-        <v>0.0002078728639632488</v>
+        <v>0.0003780949957025535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>154.8642143333334</v>
+      </c>
+      <c r="H4">
+        <v>464.5926430000001</v>
+      </c>
+      <c r="I4">
+        <v>0.9982544794956518</v>
+      </c>
+      <c r="J4">
+        <v>0.9982544794956519</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>34.739995</v>
-      </c>
-      <c r="H4">
-        <v>104.219985</v>
-      </c>
-      <c r="I4">
-        <v>0.1827267341390227</v>
-      </c>
-      <c r="J4">
-        <v>0.1827267341390227</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>0.9376208850516666</v>
+        <v>8.701923446199558</v>
       </c>
       <c r="R4">
-        <v>8.438587965465</v>
+        <v>78.31731101579601</v>
       </c>
       <c r="S4">
-        <v>6.468261740282112E-05</v>
+        <v>0.3924525207680797</v>
       </c>
       <c r="T4">
-        <v>6.468261740282112E-05</v>
+        <v>0.3924525207680796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>11790.02764034757</v>
+        <v>13.43256060143989</v>
       </c>
       <c r="R5">
-        <v>106110.2487631281</v>
+        <v>120.893045412959</v>
       </c>
       <c r="S5">
-        <v>0.8133456274145009</v>
+        <v>0.6058019587275723</v>
       </c>
       <c r="T5">
-        <v>0.8133456274145008</v>
+        <v>0.6058019587275724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>0.174137</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>0.522411</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08673766666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>0.260213</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.001137616041476965</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P6">
-        <v>0.001137616041476965</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q6">
-        <v>13.43256060143989</v>
+        <v>0.009784874121333333</v>
       </c>
       <c r="R6">
-        <v>120.893045412959</v>
+        <v>0.08806386709199999</v>
       </c>
       <c r="S6">
-        <v>0.0009266572363895967</v>
+        <v>0.0004412930702111294</v>
       </c>
       <c r="T6">
-        <v>0.0009266572363895965</v>
+        <v>0.0004412930702111294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>0.174137</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>0.522411</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02698966666666667</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N7">
-        <v>0.080969</v>
+        <v>0.260213</v>
       </c>
       <c r="O7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q7">
-        <v>4.179733523451889</v>
+        <v>0.01510423706033333</v>
       </c>
       <c r="R7">
-        <v>37.617601711067</v>
+        <v>0.135938133543</v>
       </c>
       <c r="S7">
-        <v>0.0002883426645602996</v>
+        <v>0.0006811937550651866</v>
       </c>
       <c r="T7">
-        <v>0.0002883426645602996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5157266666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.54718</v>
-      </c>
-      <c r="I8">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="J8">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>76.13138833333333</v>
-      </c>
-      <c r="N8">
-        <v>228.394165</v>
-      </c>
-      <c r="O8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="P8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="Q8">
-        <v>39.26298713385555</v>
-      </c>
-      <c r="R8">
-        <v>353.3668842047</v>
-      </c>
-      <c r="S8">
-        <v>0.002708592369645353</v>
-      </c>
-      <c r="T8">
-        <v>0.002708592369645353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5157266666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.54718</v>
-      </c>
-      <c r="I9">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="J9">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.260213</v>
-      </c>
-      <c r="O9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q9">
-        <v>0.04473292770444445</v>
-      </c>
-      <c r="R9">
-        <v>0.40259634934</v>
-      </c>
-      <c r="S9">
-        <v>3.085941124119901E-06</v>
-      </c>
-      <c r="T9">
-        <v>3.085941124119901E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5157266666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.54718</v>
-      </c>
-      <c r="I10">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="J10">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.080969</v>
-      </c>
-      <c r="O10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q10">
-        <v>0.01391929082444444</v>
-      </c>
-      <c r="R10">
-        <v>0.12527361742</v>
-      </c>
-      <c r="S10">
-        <v>9.602347572137605E-07</v>
-      </c>
-      <c r="T10">
-        <v>9.602347572137605E-07</v>
+        <v>0.0006811937550651867</v>
       </c>
     </row>
   </sheetData>
